--- a/download/产品销售.xlsx
+++ b/download/产品销售.xlsx
@@ -24,41 +24,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>交易对方名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间(20150101)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>摘要(必填)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>某某某公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目转账</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贷方金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>借方金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>某某公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手续费</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>交易时间</t>
+  </si>
+  <si>
+    <t>摘要</t>
+  </si>
+  <si>
+    <t>单价</t>
+  </si>
+  <si>
+    <t>联通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电脑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劳务服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮忙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dell服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某电子科技公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量/次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -66,6 +75,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="#,##0.00;[Red]#,##0.00"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -105,9 +117,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -389,62 +407,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>20150501</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
+      <c r="E2" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>20150101</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2">
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>20150501</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2">
         <v>5000</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>20150101</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
+      <c r="F3" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/download/产品销售.xlsx
+++ b/download/产品销售.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>交易时间</t>
   </si>
@@ -68,6 +68,18 @@
   </si>
   <si>
     <t>数量/次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2015010100001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2015010100002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,78 +419,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>20150501</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>10000</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>20150501</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>5000</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>2</v>
       </c>
     </row>
